--- a/thoh/gradurate_thesis/数据计算草稿.xlsx
+++ b/thoh/gradurate_thesis/数据计算草稿.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thohtestarossa/my_github/Mirage-docs/thoh/毕业论文/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thohtestarossa/my_github/Mirage-docs/thoh/gradurate_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="2380" windowWidth="15420" windowHeight="11240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -755,11 +755,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="988819344"/>
-        <c:axId val="1058274752"/>
+        <c:axId val="67549104"/>
+        <c:axId val="67551424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="988819344"/>
+        <c:axId val="67549104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +802,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058274752"/>
+        <c:crossAx val="67551424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1058274752"/>
+        <c:axId val="67551424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +863,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="988819344"/>
+        <c:crossAx val="67549104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1174,11 +1174,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1061700000"/>
-        <c:axId val="1061702752"/>
+        <c:axId val="41691776"/>
+        <c:axId val="41694256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1061700000"/>
+        <c:axId val="41691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061702752"/>
+        <c:crossAx val="41694256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1061702752"/>
+        <c:axId val="41694256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1279,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061700000"/>
+        <c:crossAx val="41691776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1482,11 +1482,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1061722304"/>
-        <c:axId val="1061725056"/>
+        <c:axId val="41717456"/>
+        <c:axId val="41720208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1061722304"/>
+        <c:axId val="41717456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1529,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061725056"/>
+        <c:crossAx val="41720208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1537,7 +1537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1061725056"/>
+        <c:axId val="41720208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1588,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061722304"/>
+        <c:crossAx val="41717456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,11 +1808,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="988752320"/>
-        <c:axId val="987836272"/>
+        <c:axId val="41740048"/>
+        <c:axId val="41742800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="988752320"/>
+        <c:axId val="41740048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1855,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987836272"/>
+        <c:crossAx val="41742800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +1863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="987836272"/>
+        <c:axId val="41742800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1914,7 +1914,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="988752320"/>
+        <c:crossAx val="41740048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2149,11 +2149,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1058450688"/>
-        <c:axId val="1058427104"/>
+        <c:axId val="67568928"/>
+        <c:axId val="67571680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1058450688"/>
+        <c:axId val="67568928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058427104"/>
+        <c:crossAx val="67571680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2203,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1058427104"/>
+        <c:axId val="67571680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +2254,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058450688"/>
+        <c:crossAx val="67568928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2556,11 +2556,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1027535840"/>
-        <c:axId val="1065188256"/>
+        <c:axId val="33716896"/>
+        <c:axId val="33718944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1027535840"/>
+        <c:axId val="33716896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1065188256"/>
+        <c:crossAx val="33718944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2611,7 +2611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1065188256"/>
+        <c:axId val="33718944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.00105"/>
@@ -2633,6 +2633,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2663,7 +2664,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027535840"/>
+        <c:crossAx val="33716896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2982,11 +2983,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1027136208"/>
-        <c:axId val="1057811344"/>
+        <c:axId val="33815200"/>
+        <c:axId val="33817520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1027136208"/>
+        <c:axId val="33815200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3030,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1057811344"/>
+        <c:crossAx val="33817520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3037,7 +3038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1057811344"/>
+        <c:axId val="33817520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.00033"/>
@@ -3090,7 +3091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027136208"/>
+        <c:crossAx val="33815200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3352,11 +3353,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1058343248"/>
-        <c:axId val="1058463568"/>
+        <c:axId val="41641456"/>
+        <c:axId val="41644208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1058343248"/>
+        <c:axId val="41641456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3400,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058463568"/>
+        <c:crossAx val="41644208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3407,7 +3408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1058463568"/>
+        <c:axId val="41644208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +3459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058343248"/>
+        <c:crossAx val="41641456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3764,11 +3765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1057704896"/>
-        <c:axId val="1026978064"/>
+        <c:axId val="-3218336"/>
+        <c:axId val="-3216272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1057704896"/>
+        <c:axId val="-3218336"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3827,12 +3828,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1026978064"/>
+        <c:crossAx val="-3216272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1026978064"/>
+        <c:axId val="-3216272"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3889,7 +3890,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1057704896"/>
+        <c:crossAx val="-3218336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4123,11 +4124,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1058453280"/>
-        <c:axId val="1057026704"/>
+        <c:axId val="41656480"/>
+        <c:axId val="41659296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1058453280"/>
+        <c:axId val="41656480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,7 +4171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1057026704"/>
+        <c:crossAx val="41659296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4178,7 +4179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1057026704"/>
+        <c:axId val="41659296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +4229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058453280"/>
+        <c:crossAx val="41656480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4353,7 +4354,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4456,11 +4456,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1027578736"/>
-        <c:axId val="1027430496"/>
+        <c:axId val="41670240"/>
+        <c:axId val="41672992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1027578736"/>
+        <c:axId val="41670240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,7 +4503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027430496"/>
+        <c:crossAx val="41672992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4511,7 +4511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1027430496"/>
+        <c:axId val="41672992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,7 +4561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027578736"/>
+        <c:crossAx val="41670240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4812,11 +4812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1030897552"/>
-        <c:axId val="1061236048"/>
+        <c:axId val="33578496"/>
+        <c:axId val="33608816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1030897552"/>
+        <c:axId val="33578496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4872,12 +4872,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061236048"/>
+        <c:crossAx val="33608816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1061236048"/>
+        <c:axId val="33608816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +4933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030897552"/>
+        <c:crossAx val="33578496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12186,8 +12186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O318"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A300" zoomScale="119" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D111" zoomScale="119" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
+      <selection activeCell="O127" sqref="O127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
